--- a/src/main/resources/companyList.xlsx
+++ b/src/main/resources/companyList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\jw-message\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,12 +21,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="128">
   <si>
     <t>0001</t>
-  </si>
-  <si>
-    <t>(주)트리플크라운미트</t>
   </si>
   <si>
     <t>2068609734</t>
@@ -414,6 +411,10 @@
   </si>
   <si>
     <t>010-2568-8681</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)트리플크라운미트 테스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -817,7 +818,7 @@
   <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -850,53 +851,53 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="N1" s="2"/>
       <c r="O1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
@@ -906,133 +907,133 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA1" s="4"/>
     </row>
     <row r="2" spans="1:27" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA2" s="4"/>
     </row>
     <row r="3" spans="1:27" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
@@ -1043,61 +1044,61 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:27" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R4" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
@@ -1108,61 +1109,61 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:27" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="R5" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
@@ -1172,62 +1173,62 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA5" s="4"/>
     </row>
     <row r="6" spans="1:27" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="R6" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
@@ -1238,130 +1239,130 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:27" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="M7" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="R7" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="R7" s="2" t="s">
+      <c r="S7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T7" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="T7" s="2" t="s">
+      <c r="U7" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA7" s="4"/>
     </row>
     <row r="8" spans="1:27" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="M8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q8" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="Q8" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="R8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -1371,133 +1372,133 @@
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA8" s="4"/>
     </row>
     <row r="9" spans="1:27" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="M9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="R9" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="P9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="R9" s="2" t="s">
+      <c r="S9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T9" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="S9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="T9" s="2" t="s">
+      <c r="U9" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA9" s="4"/>
     </row>
     <row r="10" spans="1:27" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="M10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="R10" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
@@ -1507,7 +1508,7 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA10" s="4"/>
     </row>

--- a/src/main/resources/companyList.xlsx
+++ b/src/main/resources/companyList.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="96">
   <si>
     <t>3/16/2012</t>
   </si>
@@ -254,10 +254,6 @@
     <t>011-896-8502</t>
   </si>
   <si>
-    <t>도매,소매</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>프랜차이즈</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -274,10 +270,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>010-9219-7312</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>돈갈비</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -311,6 +303,30 @@
   </si>
   <si>
     <t>일반갈비,척갈비,목전지,전지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도매/소매</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도매/소매</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도매/소매</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈갈비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-1234-5678</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-5678-1234</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -707,7 +723,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -719,10 +735,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -733,7 +749,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>6</v>
@@ -745,10 +761,10 @@
         <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -759,7 +775,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>10</v>
@@ -771,10 +787,10 @@
         <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -785,7 +801,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>13</v>
@@ -797,10 +813,10 @@
         <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -811,7 +827,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>16</v>
@@ -823,10 +839,10 @@
         <v>18</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -837,7 +853,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>21</v>
@@ -849,10 +865,10 @@
         <v>23</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -863,7 +879,7 @@
         <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>25</v>
@@ -875,10 +891,10 @@
         <v>27</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -889,7 +905,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>29</v>
@@ -901,10 +917,10 @@
         <v>31</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -915,7 +931,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>33</v>
@@ -927,10 +943,10 @@
         <v>34</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -941,7 +957,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>36</v>
@@ -953,10 +969,10 @@
         <v>37</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -967,7 +983,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>39</v>
@@ -979,10 +995,10 @@
         <v>40</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -993,7 +1009,7 @@
         <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>42</v>
@@ -1005,10 +1021,10 @@
         <v>43</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1019,7 +1035,7 @@
         <v>44</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>45</v>
@@ -1031,10 +1047,10 @@
         <v>46</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1045,7 +1061,7 @@
         <v>47</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>48</v>
@@ -1057,10 +1073,10 @@
         <v>49</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1071,7 +1087,7 @@
         <v>51</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>52</v>
@@ -1083,10 +1099,10 @@
         <v>54</v>
       </c>
       <c r="G15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1097,7 +1113,7 @@
         <v>56</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>57</v>
@@ -1109,10 +1125,10 @@
         <v>59</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1123,7 +1139,7 @@
         <v>61</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>62</v>
@@ -1135,10 +1151,10 @@
         <v>63</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1149,7 +1165,7 @@
         <v>65</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>66</v>
@@ -1161,10 +1177,10 @@
         <v>67</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1175,7 +1191,7 @@
         <v>69</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>70</v>
@@ -1187,10 +1203,10 @@
         <v>72</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1201,7 +1217,7 @@
         <v>74</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>75</v>
@@ -1213,10 +1229,10 @@
         <v>76</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
